--- a/Excel/DN0004.xlsx
+++ b/Excel/DN0004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Đơn nhập DN0004</t>
   </si>
@@ -50,7 +50,7 @@
     <t>Chi tiết đơn nhập</t>
   </si>
   <si>
-    <t>Mã mặt hàng</t>
+    <t>Mã mật hàng</t>
   </si>
   <si>
     <t>Mã khu vực</t>
@@ -119,17 +119,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.0" customWidth="true"/>
-    <col min="2" max="2" width="20.0" customWidth="true"/>
-    <col min="3" max="3" width="20.0" customWidth="true"/>
-    <col min="4" max="4" width="20.0" customWidth="true"/>
-    <col min="5" max="5" width="20.0" customWidth="true"/>
+    <col min="2" max="2" width="18.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+    <col min="4" max="4" width="16.0" customWidth="true"/>
+    <col min="5" max="5" width="16.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -178,69 +178,52 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s" s="1">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D5" t="n" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="E5" t="n" s="1">
+        <v>450.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="B6" t="s" s="1">
-        <v>16</v>
+      <c r="B6" t="s">
+        <v>18</v>
       </c>
       <c r="C6" t="s" s="1">
         <v>17</v>
       </c>
       <c r="D6" t="n" s="1">
-        <v>500.0</v>
+        <v>750.0</v>
       </c>
       <c r="E6" t="n" s="1">
-        <v>450.0</v>
+        <v>640.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="1">
-        <v>18</v>
+      <c r="B7" t="s">
+        <v>19</v>
       </c>
       <c r="C7" t="s" s="1">
         <v>17</v>
       </c>
       <c r="D7" t="n" s="1">
-        <v>750.0</v>
+        <v>300.0</v>
       </c>
       <c r="E7" t="n" s="1">
-        <v>640.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s" s="1">
-        <v>17</v>
-      </c>
-      <c r="D8" t="n" s="1">
-        <v>300.0</v>
-      </c>
-      <c r="E8" t="n" s="1">
         <v>240.0</v>
       </c>
     </row>
